--- a/Sample Files 2.1 - Connecting to Text and Excel Files/December 2016 Sales.xlsx
+++ b/Sample Files 2.1 - Connecting to Text and Excel Files/December 2016 Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\All-Resources\2.2 Input Data Tool - Connect to Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c31167e41f3a7265/Tableau Prep/Sample Files/Sample Files 2.1 - Connecting to Text and Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A7887-0E92-4CDF-9888-FE86E2B1526C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{D64A7887-0E92-4CDF-9888-FE86E2B1526C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{295DA5A6-95A0-A74A-8A53-B010C429B7CE}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Data" sheetId="1" r:id="rId1"/>
@@ -4007,20 +4007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>42708</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>42709</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>42730</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>42720</v>
       </c>
@@ -4135,7 +4137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>42729</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>42725</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>42732</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>42710</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>42705</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>42712</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>42721</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>42722</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>42707</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>42717</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>42721</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>42733</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>42724</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>42711</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>42715</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>42719</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>42711</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>42728</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>42732</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>42727</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>42710</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>42718</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>42733</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>42724</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>42728</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>42728</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>42734</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>42706</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>42715</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>42721</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>42707</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>42706</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>42712</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>42727</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>42706</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>42717</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>42712</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42712</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42707</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>42720</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>42710</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>42712</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>42719</v>
       </c>
@@ -5124,7 +5126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>42709</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>42724</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>42734</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>42705</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>42721</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>42733</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>42730</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>42711</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>42715</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>42709</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>42709</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>42725</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>42719</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>42712</v>
       </c>
@@ -5446,7 +5448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>42718</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>42709</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>42719</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>42705</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>42705</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>42708</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>42733</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>42709</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>42728</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>42715</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>42728</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>42711</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>42714</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>42705</v>
       </c>
@@ -5768,7 +5770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>42709</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>42719</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>42723</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>42734</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>42732</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>42727</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>42734</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>42715</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>42717</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>42723</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>42729</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>42718</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>42724</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>42715</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>42707</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>42725</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>42730</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>42727</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>42717</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>42710</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>42729</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>42726</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>42706</v>
       </c>
@@ -6297,7 +6299,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>42731</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>42715</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>42725</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>42733</v>
       </c>
@@ -6389,7 +6391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>42710</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>42723</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>42732</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>42714</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>42732</v>
       </c>
@@ -6504,7 +6506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>42721</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>42731</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>42712</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>42734</v>
       </c>
@@ -6596,7 +6598,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>42720</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>42731</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>42718</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>42709</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>42713</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>42722</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>42712</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>42728</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>42732</v>
       </c>
@@ -6803,7 +6805,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>42718</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>42710</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>42731</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>42715</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>42733</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>42733</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>42729</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>42712</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>42730</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>42725</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>42708</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>42725</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>42734</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>42728</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>42711</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>42710</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>42715</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>42726</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>42705</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>42705</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>42717</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>42728</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>42713</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>42733</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>42722</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>42715</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>42726</v>
       </c>
@@ -7424,7 +7426,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>42724</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>42734</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>42711</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>42710</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>42720</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>42714</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>42718</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>42718</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>42729</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>42734</v>
       </c>
@@ -7654,7 +7656,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>42718</v>
       </c>
@@ -7677,7 +7679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>42714</v>
       </c>
@@ -7700,7 +7702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>42723</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>42717</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>42719</v>
       </c>
@@ -7769,7 +7771,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>42714</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>42718</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>42715</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>42732</v>
       </c>
@@ -7861,7 +7863,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>42732</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>42713</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>42713</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>42725</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>42727</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>42712</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>42713</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>42720</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>42731</v>
       </c>
@@ -8068,7 +8070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>42730</v>
       </c>
@@ -8091,7 +8093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>42718</v>
       </c>
@@ -8114,7 +8116,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>42731</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>42729</v>
       </c>
@@ -8160,7 +8162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>42726</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>42717</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>42724</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>42714</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>42706</v>
       </c>
@@ -8275,7 +8277,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>42709</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>42724</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>42732</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>42715</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>42724</v>
       </c>
@@ -8390,7 +8392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>42728</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>42713</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>42727</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>42726</v>
       </c>
@@ -8482,7 +8484,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>42716</v>
       </c>
@@ -8505,7 +8507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>42716</v>
       </c>
@@ -8528,7 +8530,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>42710</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>42707</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>42718</v>
       </c>
@@ -8597,7 +8599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>42715</v>
       </c>
@@ -8620,7 +8622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>42734</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>42714</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>42733</v>
       </c>
@@ -8689,7 +8691,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>42722</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>42727</v>
       </c>
@@ -8735,7 +8737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>42732</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>42715</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>42724</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>42715</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>42709</v>
       </c>
@@ -8850,7 +8852,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>42710</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>42710</v>
       </c>
@@ -8896,7 +8898,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>42724</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>42714</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>42715</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>42706</v>
       </c>
@@ -8988,7 +8990,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>42705</v>
       </c>
@@ -9011,7 +9013,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>42712</v>
       </c>
@@ -9034,7 +9036,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>42712</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>42726</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>42721</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>42722</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>42722</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>42718</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>42711</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>42726</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>42732</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>42716</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>42732</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>42728</v>
       </c>
@@ -9310,7 +9312,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>42714</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>42720</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>42722</v>
       </c>
@@ -9379,7 +9381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>42733</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>42710</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>42711</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>42708</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>42727</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>42725</v>
       </c>
@@ -9517,7 +9519,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>42725</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>42723</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>42731</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>42713</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>42733</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>42705</v>
       </c>
@@ -9655,7 +9657,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>42724</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>42722</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>42709</v>
       </c>
@@ -9724,7 +9726,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>42727</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>42724</v>
       </c>
@@ -9770,7 +9772,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>42713</v>
       </c>
@@ -9793,7 +9795,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>42711</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>42713</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>42714</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>42732</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>42715</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>42706</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>42718</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>42708</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>42730</v>
       </c>
@@ -10000,7 +10002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>42729</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>42727</v>
       </c>
@@ -10046,7 +10048,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>42727</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>42705</v>
       </c>
@@ -10092,7 +10094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>42722</v>
       </c>
@@ -10115,7 +10117,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>42726</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>42706</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>42720</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>42714</v>
       </c>
@@ -10207,7 +10209,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>42705</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>42710</v>
       </c>
@@ -10253,7 +10255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>42716</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>42708</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>42720</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>42715</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>42728</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>42711</v>
       </c>
@@ -10391,7 +10393,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>42733</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>42719</v>
       </c>
@@ -10437,7 +10439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>42730</v>
       </c>
@@ -10460,7 +10462,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>42712</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>42731</v>
       </c>
@@ -10506,7 +10508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>42732</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>42718</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>42734</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>42710</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>42717</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>42718</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>42708</v>
       </c>
@@ -10667,7 +10669,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>42717</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>42732</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>42715</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>42714</v>
       </c>
@@ -10759,7 +10761,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>42730</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>42714</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>42718</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>42707</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>42719</v>
       </c>
@@ -10874,7 +10876,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>42730</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>42725</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>42716</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>42723</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>42729</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>42730</v>
       </c>
@@ -11012,7 +11014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>42724</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>42718</v>
       </c>
@@ -11058,7 +11060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>42709</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>42717</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>42707</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>42731</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>42719</v>
       </c>
@@ -11173,7 +11175,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>42725</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>42716</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
         <v>42719</v>
       </c>
@@ -11242,7 +11244,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>42723</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>42706</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
         <v>42719</v>
       </c>
@@ -11311,7 +11313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
         <v>42722</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>42719</v>
       </c>
@@ -11357,7 +11359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>42721</v>
       </c>
@@ -11380,7 +11382,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="7">
         <v>42717</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="7">
         <v>42733</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>42705</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>42725</v>
       </c>
@@ -11472,7 +11474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="7">
         <v>42712</v>
       </c>
@@ -11495,7 +11497,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="7">
         <v>42725</v>
       </c>
@@ -11518,7 +11520,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>42730</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>42706</v>
       </c>
@@ -11564,7 +11566,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="7">
         <v>42710</v>
       </c>
@@ -11587,7 +11589,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="7">
         <v>42724</v>
       </c>
@@ -11610,7 +11612,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>42728</v>
       </c>
@@ -11633,7 +11635,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>42707</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="7">
         <v>42724</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
         <v>42706</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>42710</v>
       </c>
@@ -11725,7 +11727,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>42734</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="7">
         <v>42727</v>
       </c>
@@ -11771,7 +11773,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="7">
         <v>42724</v>
       </c>
@@ -11794,7 +11796,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>42712</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>42708</v>
       </c>
@@ -11840,7 +11842,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="7">
         <v>42705</v>
       </c>
@@ -11863,7 +11865,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="7">
         <v>42734</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>42713</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="7">
         <v>42707</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>42714</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>42719</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="7">
         <v>42707</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="7">
         <v>42711</v>
       </c>
@@ -12024,7 +12026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>42722</v>
       </c>
@@ -12047,7 +12049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>42731</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="7">
         <v>42729</v>
       </c>
@@ -12107,13 +12109,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.765625" customWidth="1"/>
-    <col min="2" max="2" width="28.61328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>903</v>
       </c>
@@ -12124,7 +12126,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>904</v>
       </c>
